--- a/data/rice/export_th/ex2562.xlsx
+++ b/data/rice/export_th/ex2562.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\export_th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58885589-F59E-4155-9574-9BC771E2D6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFA0AB0-E15A-4A20-8422-B7AF06819B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,30 +337,6 @@
     <t>ปี 2562</t>
   </si>
   <si>
-    <t>RHXB10FO</t>
-  </si>
-  <si>
-    <t>RHXS10FO</t>
-  </si>
-  <si>
-    <t>RHXB10FN</t>
-  </si>
-  <si>
-    <t>RHXS10FN</t>
-  </si>
-  <si>
-    <t>RHXB00GO</t>
-  </si>
-  <si>
-    <t>RHXS00GO</t>
-  </si>
-  <si>
-    <t>RHXB00GN</t>
-  </si>
-  <si>
-    <t>RHXS00GN</t>
-  </si>
-  <si>
     <t>RHXBA1DU</t>
   </si>
   <si>
@@ -515,6 +491,30 @@
   </si>
   <si>
     <t>RPXSA1GU</t>
+  </si>
+  <si>
+    <t>RHXB00AO</t>
+  </si>
+  <si>
+    <t>RHXS00AO</t>
+  </si>
+  <si>
+    <t>RHXB00AN</t>
+  </si>
+  <si>
+    <t>RHXS00AN</t>
+  </si>
+  <si>
+    <t>RHXB00BO</t>
+  </si>
+  <si>
+    <t>RHXS00BO</t>
+  </si>
+  <si>
+    <t>RHXB00BN</t>
+  </si>
+  <si>
+    <t>RHXS00BN</t>
   </si>
 </sst>
 </file>
@@ -5733,8 +5733,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -7038,7 +7038,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -11126,10 +11126,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="6" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="8" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="9" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="10" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="11" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="12" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="13" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -11540,7 +11540,7 @@
     </row>
     <row r="15" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="16" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -11641,7 +11641,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -11672,7 +11672,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -11791,7 +11791,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -11875,7 +11875,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -11972,7 +11972,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -12170,7 +12170,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -12499,7 +12499,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -12646,7 +12646,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -12692,7 +12692,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -12940,7 +12940,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -13006,7 +13006,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -13072,7 +13072,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -13138,7 +13138,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -13270,7 +13270,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -13316,7 +13316,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -16553,10 +16553,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -16715,7 +16715,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -16793,7 +16793,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -16825,7 +16825,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -16856,7 +16856,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -16894,7 +16894,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -17044,7 +17044,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -17110,7 +17110,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -17156,7 +17156,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -17194,7 +17194,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -17278,7 +17278,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -17309,7 +17309,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -17344,7 +17344,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -17410,7 +17410,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -17441,7 +17441,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -17476,7 +17476,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -17507,7 +17507,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -17542,7 +17542,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -17573,7 +17573,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -17608,7 +17608,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -17654,7 +17654,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -17689,7 +17689,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -17720,7 +17720,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -17755,7 +17755,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -17786,7 +17786,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -17867,7 +17867,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -17933,7 +17933,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -18014,7 +18014,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -18049,7 +18049,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -18095,7 +18095,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -18130,7 +18130,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -18161,7 +18161,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -18196,7 +18196,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -18308,7 +18308,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -18374,7 +18374,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -18409,7 +18409,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -18440,7 +18440,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -18475,7 +18475,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -18506,7 +18506,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -18541,7 +18541,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -18638,7 +18638,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -18673,7 +18673,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -18754,7 +18754,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -21956,10 +21956,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -22047,7 +22047,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -22112,7 +22112,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -22147,7 +22147,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -22182,7 +22182,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -22214,7 +22214,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -22247,7 +22247,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -22279,7 +22279,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -22326,7 +22326,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -22355,7 +22355,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -22384,7 +22384,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -22413,7 +22413,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -22442,7 +22442,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -22471,7 +22471,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -22515,7 +22515,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -22547,7 +22547,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -22594,7 +22594,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -22623,7 +22623,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -22681,7 +22681,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -22739,7 +22739,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -22768,7 +22768,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -22797,7 +22797,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -22826,7 +22826,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -22855,7 +22855,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -22913,7 +22913,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -22957,7 +22957,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -22986,7 +22986,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -23044,7 +23044,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -23102,7 +23102,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -23146,7 +23146,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -23204,7 +23204,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -23233,7 +23233,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -23277,7 +23277,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -23306,7 +23306,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -23350,7 +23350,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -23408,7 +23408,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -23437,7 +23437,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -23466,7 +23466,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -23495,7 +23495,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -23597,7 +23597,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -23626,7 +23626,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -23655,7 +23655,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -23684,7 +23684,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -23713,7 +23713,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -23771,7 +23771,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -23800,7 +23800,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -23829,7 +23829,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -23858,7 +23858,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -23902,7 +23902,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -23931,7 +23931,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -27131,10 +27131,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -27218,7 +27218,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -27238,7 +27238,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -27258,7 +27258,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -27278,7 +27278,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -27298,7 +27298,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -27318,7 +27318,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -27338,7 +27338,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -27361,7 +27361,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -27399,7 +27399,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -27419,7 +27419,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -27439,7 +27439,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -27459,7 +27459,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -27479,7 +27479,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -27499,7 +27499,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -27557,7 +27557,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -27595,7 +27595,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -27615,7 +27615,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -27635,7 +27635,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -27655,7 +27655,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -27675,7 +27675,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -27695,7 +27695,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -27715,7 +27715,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -27735,7 +27735,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -27755,7 +27755,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -27775,7 +27775,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -27795,7 +27795,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -27815,7 +27815,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -27850,7 +27850,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -27870,7 +27870,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -27910,7 +27910,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -27930,7 +27930,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -27950,7 +27950,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -28005,7 +28005,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -28025,7 +28025,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -28045,7 +28045,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -28080,7 +28080,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -28100,7 +28100,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -28135,7 +28135,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -28155,7 +28155,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -28175,7 +28175,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -28195,7 +28195,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -28215,7 +28215,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -28235,7 +28235,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -28270,7 +28270,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -28290,7 +28290,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -28310,7 +28310,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -28330,7 +28330,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -28350,7 +28350,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -28370,7 +28370,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -28390,7 +28390,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -28410,7 +28410,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -28430,7 +28430,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -28450,7 +28450,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -28470,7 +28470,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -28490,7 +28490,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -28525,7 +28525,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -28545,7 +28545,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -35896,7 +35896,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -35989,7 +35989,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -36021,7 +36021,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -36050,7 +36050,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -36082,7 +36082,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -36111,7 +36111,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -36143,7 +36143,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -36172,7 +36172,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -36207,7 +36207,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -36254,7 +36254,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -36286,7 +36286,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -36315,7 +36315,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -36347,7 +36347,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -36408,7 +36408,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -36452,7 +36452,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -36487,7 +36487,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -36534,7 +36534,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -36566,7 +36566,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -36595,7 +36595,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -36627,7 +36627,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -36656,7 +36656,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -36688,7 +36688,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -36717,7 +36717,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -36749,7 +36749,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -36778,7 +36778,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -36810,7 +36810,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -36839,7 +36839,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -36871,7 +36871,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -36915,7 +36915,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -36947,7 +36947,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -37008,7 +37008,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -37037,7 +37037,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -37069,7 +37069,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -37113,7 +37113,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -37145,7 +37145,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -37174,7 +37174,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -37206,7 +37206,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -37250,7 +37250,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -37282,7 +37282,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -37326,7 +37326,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -37358,7 +37358,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -37387,7 +37387,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -37419,7 +37419,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -37448,7 +37448,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -37480,7 +37480,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -37524,7 +37524,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -37556,7 +37556,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -37585,7 +37585,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -37617,7 +37617,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -37646,7 +37646,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -37678,7 +37678,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -37707,7 +37707,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -37739,7 +37739,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -37768,7 +37768,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -37800,7 +37800,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -37829,7 +37829,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -37861,7 +37861,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -37905,7 +37905,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -37937,7 +37937,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -41136,10 +41136,10 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -41238,7 +41238,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -41273,7 +41273,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -41304,7 +41304,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -41339,7 +41339,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -41370,7 +41370,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -41405,7 +41405,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -41436,7 +41436,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -41474,7 +41474,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -41523,7 +41523,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -41558,7 +41558,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -41589,7 +41589,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -41624,7 +41624,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -41655,7 +41655,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -41690,7 +41690,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -41736,7 +41736,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -41774,7 +41774,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -41823,7 +41823,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -41858,7 +41858,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -41889,7 +41889,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -41924,7 +41924,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -41955,7 +41955,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -41990,7 +41990,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -42021,7 +42021,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -42056,7 +42056,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -42087,7 +42087,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -42122,7 +42122,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -42153,7 +42153,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -42188,7 +42188,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -42234,7 +42234,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -42269,7 +42269,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -42300,7 +42300,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -42335,7 +42335,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -42366,7 +42366,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -42401,7 +42401,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -42447,7 +42447,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -42482,7 +42482,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -42513,7 +42513,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -42548,7 +42548,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -42594,7 +42594,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -42629,7 +42629,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -42675,7 +42675,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -42710,7 +42710,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -42741,7 +42741,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -42776,7 +42776,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -42807,7 +42807,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -42842,7 +42842,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -42888,7 +42888,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -42923,7 +42923,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -42954,7 +42954,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -42989,7 +42989,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -43020,7 +43020,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -43055,7 +43055,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -43086,7 +43086,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -43121,7 +43121,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -43152,7 +43152,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -43187,7 +43187,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -43218,7 +43218,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -43253,7 +43253,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -43299,7 +43299,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -43334,7 +43334,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -46538,10 +46538,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -46636,7 +46636,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -46671,7 +46671,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -46702,7 +46702,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -46737,7 +46737,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -46768,7 +46768,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -46803,7 +46803,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -46834,7 +46834,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -46872,7 +46872,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -46924,7 +46924,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -46959,7 +46959,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -46990,7 +46990,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -47025,7 +47025,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -47056,7 +47056,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -47091,7 +47091,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -47140,7 +47140,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -47178,7 +47178,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -47230,7 +47230,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -47265,7 +47265,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -47296,7 +47296,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -47331,7 +47331,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -47362,7 +47362,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -47397,7 +47397,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -47428,7 +47428,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -47463,7 +47463,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -47494,7 +47494,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -47529,7 +47529,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -47560,7 +47560,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -47595,7 +47595,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -47644,7 +47644,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -47679,7 +47679,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -47710,7 +47710,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -47745,7 +47745,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -47776,7 +47776,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -47811,7 +47811,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -47860,7 +47860,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -47895,7 +47895,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -47926,7 +47926,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -47961,7 +47961,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -48010,7 +48010,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -48045,7 +48045,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -48094,7 +48094,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -48129,7 +48129,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -48160,7 +48160,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -48195,7 +48195,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -48226,7 +48226,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -48261,7 +48261,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -48310,7 +48310,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -48345,7 +48345,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -48376,7 +48376,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -48411,7 +48411,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -48442,7 +48442,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -48477,7 +48477,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -48508,7 +48508,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -48543,7 +48543,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -48574,7 +48574,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -48609,7 +48609,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -48640,7 +48640,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -48675,7 +48675,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -48724,7 +48724,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -48759,7 +48759,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -51961,10 +51961,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -52057,7 +52057,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -52095,7 +52095,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -52130,7 +52130,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -52168,7 +52168,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -52203,7 +52203,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -52241,7 +52241,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -52270,7 +52270,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -52305,7 +52305,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -52352,7 +52352,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -52384,7 +52384,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -52413,7 +52413,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -52445,7 +52445,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -52474,7 +52474,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -52506,7 +52506,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -52550,7 +52550,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -52585,7 +52585,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -52632,7 +52632,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -52664,7 +52664,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -52693,7 +52693,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -52725,7 +52725,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -52754,7 +52754,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -52786,7 +52786,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -52815,7 +52815,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -52847,7 +52847,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -52876,7 +52876,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -52908,7 +52908,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -52937,7 +52937,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -52969,7 +52969,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -53013,7 +53013,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -53045,7 +53045,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -53074,7 +53074,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -53106,7 +53106,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -53135,7 +53135,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -53167,7 +53167,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -53211,7 +53211,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -53243,7 +53243,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -53272,7 +53272,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -53304,7 +53304,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -53348,7 +53348,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -53380,7 +53380,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -53424,7 +53424,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -53456,7 +53456,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -53485,7 +53485,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -53517,7 +53517,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -53546,7 +53546,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -53578,7 +53578,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -53622,7 +53622,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -53654,7 +53654,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -53683,7 +53683,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -53715,7 +53715,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -53744,7 +53744,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -53776,7 +53776,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -53805,7 +53805,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -53837,7 +53837,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -53866,7 +53866,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -53898,7 +53898,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -53927,7 +53927,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -53959,7 +53959,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -54003,7 +54003,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -54035,7 +54035,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -57235,10 +57235,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -57333,7 +57333,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -57368,7 +57368,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -57399,7 +57399,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -57434,7 +57434,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -57465,7 +57465,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -57500,7 +57500,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -57531,7 +57531,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -57569,7 +57569,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -57618,7 +57618,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -57653,7 +57653,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -57684,7 +57684,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -57719,7 +57719,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -57750,7 +57750,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -57785,7 +57785,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -57831,7 +57831,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -57869,7 +57869,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -57918,7 +57918,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -57953,7 +57953,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -57984,7 +57984,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -58019,7 +58019,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -58050,7 +58050,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -58085,7 +58085,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -58116,7 +58116,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -58151,7 +58151,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -58182,7 +58182,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -58217,7 +58217,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -58248,7 +58248,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -58283,7 +58283,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -58329,7 +58329,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -58364,7 +58364,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -58395,7 +58395,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -58430,7 +58430,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -58461,7 +58461,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -58496,7 +58496,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -58542,7 +58542,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -58577,7 +58577,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -58608,7 +58608,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -58643,7 +58643,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -58689,7 +58689,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -58724,7 +58724,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -58770,7 +58770,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -58805,7 +58805,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -58836,7 +58836,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -58871,7 +58871,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -58902,7 +58902,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -58937,7 +58937,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -58983,7 +58983,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -59018,7 +59018,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -59049,7 +59049,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -59084,7 +59084,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -59115,7 +59115,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -59150,7 +59150,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -59181,7 +59181,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -59216,7 +59216,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -59247,7 +59247,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -59282,7 +59282,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -59313,7 +59313,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -59348,7 +59348,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -59394,7 +59394,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -59429,7 +59429,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -62631,10 +62631,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -62736,7 +62736,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -62777,7 +62777,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -62814,7 +62814,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -62855,7 +62855,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -62892,7 +62892,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -62933,7 +62933,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -62964,7 +62964,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -63002,7 +63002,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -63051,7 +63051,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -63086,7 +63086,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -63117,7 +63117,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -63152,7 +63152,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -63183,7 +63183,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -63218,7 +63218,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -63264,7 +63264,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -63302,7 +63302,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -63351,7 +63351,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -63386,7 +63386,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -63417,7 +63417,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -63452,7 +63452,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -63483,7 +63483,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -63518,7 +63518,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -63549,7 +63549,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -63584,7 +63584,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -63615,7 +63615,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -63650,7 +63650,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -63681,7 +63681,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -63716,7 +63716,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -63762,7 +63762,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -63797,7 +63797,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -63828,7 +63828,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -63863,7 +63863,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -63894,7 +63894,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -63929,7 +63929,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -63975,7 +63975,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -64010,7 +64010,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -64041,7 +64041,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -64076,7 +64076,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -64122,7 +64122,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -64157,7 +64157,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -64203,7 +64203,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -64238,7 +64238,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -64269,7 +64269,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -64304,7 +64304,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -64335,7 +64335,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -64370,7 +64370,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -64416,7 +64416,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -64451,7 +64451,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -64482,7 +64482,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -64517,7 +64517,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -64548,7 +64548,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -64583,7 +64583,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -64614,7 +64614,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -64649,7 +64649,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -64680,7 +64680,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -64715,7 +64715,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -64746,7 +64746,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -64781,7 +64781,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -64827,7 +64827,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -64862,7 +64862,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -68064,10 +68064,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G6" sqref="G6"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -68168,7 +68168,7 @@
     </row>
     <row r="6" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>87</v>
@@ -68208,7 +68208,7 @@
     </row>
     <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -68244,7 +68244,7 @@
     </row>
     <row r="8" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>88</v>
@@ -68284,7 +68284,7 @@
     </row>
     <row r="9" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -68320,7 +68320,7 @@
     </row>
     <row r="10" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -68360,7 +68360,7 @@
     </row>
     <row r="11" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -68391,7 +68391,7 @@
     </row>
     <row r="12" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -68429,7 +68429,7 @@
     </row>
     <row r="13" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -68478,7 +68478,7 @@
     </row>
     <row r="15" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -68513,7 +68513,7 @@
     </row>
     <row r="16" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -68544,7 +68544,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -68579,7 +68579,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -68610,7 +68610,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -68645,7 +68645,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -68691,7 +68691,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -68729,7 +68729,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -68778,7 +68778,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -68813,7 +68813,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -68844,7 +68844,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -68879,7 +68879,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -68910,7 +68910,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -68945,7 +68945,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -68976,7 +68976,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -69011,7 +69011,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -69042,7 +69042,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -69077,7 +69077,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -69108,7 +69108,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -69143,7 +69143,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -69189,7 +69189,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -69224,7 +69224,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -69255,7 +69255,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -69290,7 +69290,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -69321,7 +69321,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -69356,7 +69356,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -69402,7 +69402,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -69437,7 +69437,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -69468,7 +69468,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -69503,7 +69503,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -69549,7 +69549,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -69584,7 +69584,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -69630,7 +69630,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -69665,7 +69665,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -69696,7 +69696,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -69731,7 +69731,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -69762,7 +69762,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -69797,7 +69797,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -69843,7 +69843,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -69878,7 +69878,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -69909,7 +69909,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -69944,7 +69944,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -69975,7 +69975,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -70010,7 +70010,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -70041,7 +70041,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -70076,7 +70076,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -70107,7 +70107,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -70142,7 +70142,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -70173,7 +70173,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -70208,7 +70208,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -70254,7 +70254,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -70289,7 +70289,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
